--- a/Tutorial1.xlsx
+++ b/Tutorial1.xlsx
@@ -13,6 +13,15 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,7 +436,9 @@
     <row r="5" spans="2:13">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>

--- a/Tutorial1.xlsx
+++ b/Tutorial1.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +388,7 @@
   <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -569,7 +573,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>

--- a/Tutorial1.xlsx
+++ b/Tutorial1.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +392,7 @@
   <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -518,7 +522,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
